--- a/songfestival2002 (versie 1).xlsx
+++ b/songfestival2002 (versie 1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40740" windowHeight="16740" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="14940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -327,8 +327,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -386,7 +390,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="53">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -411,6 +415,8 @@
     <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -435,6 +441,8 @@
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3411,7 +3419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
@@ -5305,7 +5313,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -7468,8 +7476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S58"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10085,7 +10093,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
